--- a/ResultadoEleicoesDistritos/ÉVORA_ALANDROAL.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_ALANDROAL.xlsx
@@ -597,58 +597,58 @@
         <v>1315</v>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J2" t="n">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>140</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>98</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>145</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N2" t="n">
-        <v>94</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>87</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>878</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>117</v>
-      </c>
-      <c r="U2" t="n">
-        <v>11</v>
-      </c>
-      <c r="V2" t="n">
-        <v>841</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
         <v>14</v>
